--- a/MSCA/Gantt-chart-MSCA.xlsx
+++ b/MSCA/Gantt-chart-MSCA.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t xml:space="preserve">Month</t>
   </si>
@@ -40,19 +40,82 @@
     <t xml:space="preserve">Milestone</t>
   </si>
   <si>
+    <t xml:space="preserve">M1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M4</t>
+  </si>
+  <si>
     <t xml:space="preserve">Deliverable</t>
   </si>
   <si>
+    <t xml:space="preserve">D1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D2.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D3.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D3.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D3.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D3.5</t>
+  </si>
+  <si>
     <t xml:space="preserve">Secondment</t>
   </si>
   <si>
     <t xml:space="preserve">Conference</t>
   </si>
   <si>
+    <t xml:space="preserve">DFD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APS</t>
+  </si>
+  <si>
     <t xml:space="preserve">Seminar</t>
   </si>
   <si>
     <t xml:space="preserve">Outreach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">April</t>
+  </si>
+  <si>
+    <t xml:space="preserve">July</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jan</t>
   </si>
 </sst>
 </file>
@@ -67,6 +130,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -84,7 +148,7 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -94,13 +158,43 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFDEE7E5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFBF00"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF4000"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE0C2CD"/>
+        <bgColor rgb="FFF7D1D5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDEE7E5"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7D1D5"/>
+        <bgColor rgb="FFDDDDDD"/>
       </patternFill>
     </fill>
   </fills>
@@ -145,7 +239,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -159,6 +253,30 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -187,7 +305,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFE0C2CD"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -207,18 +325,18 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFDEE7E5"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFF7D1D5"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFFBF00"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FFFF4000"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
@@ -239,16 +357,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y11"/>
+  <dimension ref="A1:Y12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L3" activeCellId="0" sqref="L3"/>
+      <selection pane="topLeft" activeCell="AA16" activeCellId="0" sqref="AA16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="2" style="0" width="5.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="2" style="0" width="5.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -340,283 +458,345 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="T7" s="4"/>
+      <c r="U7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="W7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="X7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y7" s="8" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="9" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q12" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="T12" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="W12" s="0" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
